--- a/practice_req/data/prac_data.xlsx
+++ b/practice_req/data/prac_data.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12780" windowWidth="21240"/>
+    <workbookView windowWidth="15030" windowHeight="11595"/>
   </bookViews>
   <sheets>
-    <sheet name="reg" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="add" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="audit" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="invest" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="bidloan(n_a)" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="reg" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="2" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" r:id="rId3"/>
+    <sheet name="withdraw" sheetId="4" r:id="rId4"/>
+    <sheet name="add" sheetId="5" r:id="rId5"/>
+    <sheet name="audit" sheetId="6" r:id="rId6"/>
+    <sheet name="invest" sheetId="7" r:id="rId7"/>
+    <sheet name="bidloan(n_a)" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="292">
   <si>
     <t>case_id</t>
   </si>
@@ -132,6 +132,9 @@
     <t>{"mobilephone":"${mobile phone}","pwd":"``````#@!","regname":"zhuzhu"}</t>
   </si>
   <si>
+    <t>fall</t>
+  </si>
+  <si>
     <t>用户名为空</t>
   </si>
   <si>
@@ -310,9 +313,6 @@
   </si>
   <si>
     <t>{"status":1,"code":"10001","data":{"id":93726,"regname":"test_1","pwd":"96E79218965EB72C92A549DD5A330112","mobilephone":"13653204562","leaveamount":"496000.00","type":"1","regtime":"2019-07-09 11:26:14.0"},"msg":"取现成功"}</t>
-  </si>
-  <si>
-    <t>fall</t>
   </si>
   <si>
     <t>非会员取现</t>
@@ -905,192 +905,300 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="Courier New"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="10.5"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF505050"/>
       <name val="Helvetica"/>
       <charset val="134"/>
-      <color rgb="FF505050"/>
-      <sz val="9"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,31 +1210,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,43 +1252,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,91 +1264,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,6 +1302,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1323,46 +1332,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1382,246 +1362,271 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="18" fontId="20" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="4" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="12" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="21" fontId="21" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="21" fontId="22" numFmtId="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="9" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1910,23 +1915,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="23"/>
-    <col customWidth="1" max="4" min="4" style="1" width="20.625"/>
-    <col customWidth="1" max="5" min="5" style="1" width="66.625"/>
-    <col customWidth="1" max="6" min="6" style="1" width="35.25"/>
+    <col min="2" max="2" width="23" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="66.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1958,8 +1960,8 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="2" s="1" spans="1:9">
-      <c r="A2" t="n">
+    <row r="2" ht="27" customHeight="1" spans="1:8">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1984,8 +1986,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="n">
+    <row r="3" spans="1:8">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2010,8 +2012,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="n">
+    <row r="4" spans="1:8">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2036,8 +2038,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="n">
+    <row r="5" spans="1:8">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2062,8 +2064,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="n">
+    <row r="6" spans="1:8">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2088,8 +2090,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="n">
+    <row r="7" spans="1:8">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2114,8 +2116,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="n">
+    <row r="8" spans="1:8">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -2140,8 +2142,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:8">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -2166,8 +2168,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="n">
+    <row r="10" spans="1:8">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -2189,15 +2191,15 @@
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -2206,7 +2208,7 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -2215,32 +2217,30 @@
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col customWidth="1" max="4" min="4" style="1" width="55.625"/>
-    <col customWidth="1" max="5" min="5" style="1" width="45.375"/>
-    <col customWidth="1" max="6" min="6" style="1" width="70.375"/>
+    <col min="4" max="4" width="55.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="70.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2272,125 +2272,125 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="n">
+    <row r="2" spans="1:8">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
         <v>44</v>
       </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="n">
+    <row r="5" spans="1:8">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="n">
+    <row r="6" spans="1:8">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -2402,8 +2402,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="n">
+    <row r="7" spans="1:8">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2413,10 +2413,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -2428,55 +2428,53 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="n">
+    <row r="8" spans="1:8">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="26.5"/>
-    <col customWidth="1" max="4" min="4" style="1" width="47.75"/>
-    <col customWidth="1" max="5" min="5" style="1" width="72.125"/>
+    <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="72.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2508,270 +2506,268 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="n">
+    <row r="2" spans="1:6">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="n">
+    <row r="7" spans="1:6">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:6">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
         <v>71</v>
       </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="n">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="30.5"/>
-    <col customWidth="1" max="4" min="4" style="1" width="58.125"/>
-    <col customWidth="1" max="5" min="5" style="1" width="46"/>
-    <col customWidth="1" max="6" min="6" style="1" width="39.5"/>
+    <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="58.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2803,138 +2799,138 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="n">
+    <row r="2" spans="1:8">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E5" t="s">
         <v>84</v>
       </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2944,7 +2940,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
         <v>98</v>
@@ -2959,21 +2955,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="n">
+    <row r="8" spans="1:8">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
@@ -2985,8 +2981,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:8">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -2996,23 +2992,23 @@
         <v>10</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
         <v>101</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="n">
+    <row r="10" spans="1:8">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -3022,7 +3018,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
         <v>103</v>
@@ -3037,8 +3033,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="n">
+    <row r="11" spans="1:8">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -3048,7 +3044,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
         <v>105</v>
@@ -3063,8 +3059,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="n">
+    <row r="12" spans="1:8">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -3074,13 +3070,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
         <v>108</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
         <v>109</v>
@@ -3089,34 +3085,34 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="n">
+    <row r="13" spans="1:8">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
         <v>110</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="n">
+    <row r="14" spans="1:8">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -3126,7 +3122,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
         <v>112</v>
@@ -3141,34 +3137,34 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="n">
+    <row r="15" spans="1:8">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
         <v>115</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="n">
+    <row r="16" spans="1:8">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -3178,23 +3174,23 @@
         <v>10</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
         <v>117</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="n">
+    <row r="17" spans="1:8">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -3204,7 +3200,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
         <v>119</v>
@@ -3219,8 +3215,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="n">
+    <row r="18" spans="1:8">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -3230,7 +3226,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
         <v>112</v>
@@ -3246,27 +3242,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="22.625"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13.875"/>
-    <col customWidth="1" max="5" min="5" style="2" width="49"/>
+    <col min="2" max="2" width="22.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3298,8 +3292,8 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="2" s="1" spans="1:9">
-      <c r="A2" t="n">
+    <row r="2" ht="14.25" customHeight="1" spans="1:8">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -3309,23 +3303,23 @@
         <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
         <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="3" s="1" spans="1:9">
-      <c r="A3" t="n">
+    <row r="3" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -3350,8 +3344,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="4" s="1" spans="1:9">
-      <c r="A4" t="n">
+    <row r="4" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -3376,8 +3370,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="5" s="1" spans="1:9">
-      <c r="A5" t="n">
+    <row r="5" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -3402,8 +3396,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="6" s="1" spans="1:9">
-      <c r="A6" t="n">
+    <row r="6" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -3428,8 +3422,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="7" s="1" spans="1:9">
-      <c r="A7" t="n">
+    <row r="7" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -3454,8 +3448,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="8" s="1" spans="1:9">
-      <c r="A8" t="n">
+    <row r="8" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -3480,8 +3474,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="9" s="1" spans="1:9">
-      <c r="A9" t="n">
+    <row r="9" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -3506,8 +3500,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="10" s="1" spans="1:9">
-      <c r="A10" t="n">
+    <row r="10" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -3532,8 +3526,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="11" s="1" spans="1:9">
-      <c r="A11" t="n">
+    <row r="11" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -3558,8 +3552,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="12" s="1" spans="1:9">
-      <c r="A12" t="n">
+    <row r="12" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -3584,8 +3578,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="54" r="13" s="1" spans="1:9">
-      <c r="A13" t="n">
+    <row r="13" ht="54" customHeight="1" spans="1:8">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -3610,8 +3604,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="14" s="1" spans="1:9">
-      <c r="A14" t="n">
+    <row r="14" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -3636,8 +3630,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="15" s="1" spans="1:9">
-      <c r="A15" t="n">
+    <row r="15" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -3662,8 +3656,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="16" s="1" spans="1:9">
-      <c r="A16" t="n">
+    <row r="16" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -3688,8 +3682,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="17" s="1" spans="1:9">
-      <c r="A17" t="n">
+    <row r="17" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -3714,8 +3708,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="18" s="1" spans="1:9">
-      <c r="A18" t="n">
+    <row r="18" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -3740,8 +3734,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="19" s="1" spans="1:9">
-      <c r="A19" t="n">
+    <row r="19" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -3766,8 +3760,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="20" s="1" spans="1:9">
-      <c r="A20" t="n">
+    <row r="20" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -3792,8 +3786,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="21" s="1" spans="1:9">
-      <c r="A21" t="n">
+    <row r="21" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -3818,8 +3812,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="22" s="1" spans="1:9">
-      <c r="A22" t="n">
+    <row r="22" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -3844,8 +3838,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="23" s="1" spans="1:9">
-      <c r="A23" t="n">
+    <row r="23" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -3870,8 +3864,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="24" s="1" spans="1:9">
-      <c r="A24" t="n">
+    <row r="24" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -3896,8 +3890,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="25" s="1" spans="1:9">
-      <c r="A25" t="n">
+    <row r="25" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -3922,8 +3916,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="26" s="1" spans="1:9">
-      <c r="A26" t="n">
+    <row r="26" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -3948,8 +3942,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="27" s="1" spans="1:9">
-      <c r="A27" t="n">
+    <row r="27" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -3974,8 +3968,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="28" s="1" spans="1:9">
-      <c r="A28" t="n">
+    <row r="28" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -4000,8 +3994,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="29" s="1" spans="1:9">
-      <c r="A29" t="n">
+    <row r="29" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -4026,8 +4020,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="30" s="1" spans="1:9">
-      <c r="A30" t="n">
+    <row r="30" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -4052,8 +4046,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="31" s="1" spans="1:9">
-      <c r="A31" t="n">
+    <row r="31" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -4078,8 +4072,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="32" s="1" spans="1:9">
-      <c r="A32" t="n">
+    <row r="32" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -4104,8 +4098,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="33" s="1" spans="1:9">
-      <c r="A33" t="n">
+    <row r="33" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -4130,8 +4124,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="34" s="1" spans="1:9">
-      <c r="A34" t="n">
+    <row r="34" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -4156,8 +4150,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="35" s="1" spans="1:9">
-      <c r="A35" t="n">
+    <row r="35" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -4182,8 +4176,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="36" s="1" spans="1:9">
-      <c r="A36" t="n">
+    <row r="36" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -4208,8 +4202,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="37" s="1" spans="1:9">
-      <c r="A37" t="n">
+    <row r="37" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -4234,8 +4228,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="38" s="1" spans="1:9">
-      <c r="A38" t="n">
+    <row r="38" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -4260,8 +4254,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="39" s="1" spans="1:9">
-      <c r="A39" t="n">
+    <row r="39" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -4286,8 +4280,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="40" s="1" spans="1:9">
-      <c r="A40" t="n">
+    <row r="40" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -4313,26 +4307,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="23.875"/>
-    <col customWidth="1" max="5" min="5" style="1" width="61.5"/>
+    <col min="2" max="2" width="23.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="61.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4364,8 +4356,8 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="2" s="1" spans="1:9">
-      <c r="A2" t="n">
+    <row r="2" ht="28.5" customHeight="1" spans="1:8">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -4375,23 +4367,23 @@
         <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
         <v>210</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="3" s="1" spans="1:9">
-      <c r="A3" t="n">
+    <row r="3" ht="28.5" customHeight="1" spans="1:8">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -4416,8 +4408,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="4" s="1" spans="1:9">
-      <c r="A4" t="n">
+    <row r="4" ht="28.5" customHeight="1" spans="1:8">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -4427,23 +4419,23 @@
         <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
         <v>214</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="5" s="1" spans="1:9">
-      <c r="A5" t="n">
+    <row r="5" ht="28.5" customHeight="1" spans="1:8">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -4465,11 +4457,11 @@
         <v>219</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="28.5" r="6" s="1" spans="1:9">
-      <c r="A6" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" customHeight="1" spans="1:8">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -4494,8 +4486,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="7" s="1" spans="1:9">
-      <c r="A7" t="n">
+    <row r="7" ht="28.5" customHeight="1" spans="1:8">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -4520,8 +4512,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="8" s="1" spans="1:9">
-      <c r="A8" t="n">
+    <row r="8" ht="28.5" customHeight="1" spans="1:8">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -4546,8 +4538,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="9" s="1" spans="1:9">
-      <c r="A9" t="n">
+    <row r="9" ht="28.5" customHeight="1" spans="1:8">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -4572,8 +4564,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="10" s="1" spans="1:9">
-      <c r="A10" t="n">
+    <row r="10" ht="28.5" customHeight="1" spans="1:8">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -4598,8 +4590,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="11" s="1" spans="1:9">
-      <c r="A11" t="n">
+    <row r="11" ht="28.5" customHeight="1" spans="1:8">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -4624,8 +4616,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="12" s="1" spans="1:9">
-      <c r="A12" t="n">
+    <row r="12" ht="28.5" customHeight="1" spans="1:8">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -4650,8 +4642,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="13" s="1" spans="1:9">
-      <c r="A13" t="n">
+    <row r="13" ht="28.5" customHeight="1" spans="1:8">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -4677,30 +4669,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="9"/>
-    <col customWidth="1" max="2" min="2" style="1" width="20.4416666666667"/>
-    <col customWidth="1" max="3" min="3" style="1" width="7.375"/>
-    <col customWidth="1" max="4" min="4" style="1" width="18.4416666666667"/>
-    <col customWidth="1" max="5" min="5" style="1" width="97.8833333333333"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="9"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.4416666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.4416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="97.8833333333333" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4732,8 +4722,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="n">
+    <row r="2" spans="1:8">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4743,23 +4733,23 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>214</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="3" s="1" spans="1:9">
-      <c r="A3" t="n">
+    <row r="3" ht="43.2" customHeight="1" spans="1:8">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -4784,8 +4774,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="n">
+    <row r="4" spans="1:8">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4810,8 +4800,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="n">
+    <row r="5" spans="1:8">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -4821,23 +4811,23 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>247</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="n">
+    <row r="6" spans="1:8">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -4862,8 +4852,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="n">
+    <row r="7" spans="1:8">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4888,8 +4878,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="n">
+    <row r="8" spans="1:8">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4915,26 +4905,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="5" min="5" style="1" width="49.5"/>
+    <col min="5" max="5" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4966,106 +4954,106 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="2:6">
       <c r="B2" s="2" t="s">
         <v>241</v>
       </c>
       <c r="E2" t="s">
         <v>214</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>10001</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:6">
       <c r="B3" s="2" t="s">
         <v>242</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>10001</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="2:6">
       <c r="B4" s="2" t="s">
         <v>244</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>10001</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="2:6">
       <c r="B5" s="2" t="s">
         <v>246</v>
       </c>
       <c r="E5" t="s">
         <v>259</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>10001</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="2:6">
       <c r="B6" s="2" t="s">
         <v>248</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>10001</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="2:6">
       <c r="B7" s="2" t="s">
         <v>252</v>
       </c>
       <c r="E7" t="s">
         <v>261</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>11003</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="2:6">
       <c r="B8" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E8" t="s">
         <v>262</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>11013</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
         <v>263</v>
       </c>
       <c r="E9" t="s">
         <v>264</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>11013</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="2:6">
       <c r="B10" t="s">
         <v>265</v>
       </c>
       <c r="E10" t="s">
         <v>266</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>11013</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="2:5">
       <c r="B11" t="s">
         <v>267</v>
       </c>
@@ -5073,7 +5061,7 @@
         <v>268</v>
       </c>
     </row>
-    <row customHeight="1" ht="12" r="12" s="1" spans="1:9">
+    <row r="12" ht="12" customHeight="1" spans="2:5">
       <c r="B12" t="s">
         <v>32</v>
       </c>
@@ -5081,7 +5069,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="2:5">
       <c r="B13" t="s">
         <v>270</v>
       </c>
@@ -5089,7 +5077,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="2:5">
       <c r="B14" t="s">
         <v>272</v>
       </c>
@@ -5097,8 +5085,8 @@
         <v>273</v>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="15" s="1" spans="1:9">
-      <c r="A15" t="n">
+    <row r="15" ht="28.5" customHeight="1" spans="1:6">
+      <c r="A15">
         <v>10</v>
       </c>
       <c r="B15" t="s">
@@ -5117,7 +5105,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="2:5">
       <c r="B16" t="s">
         <v>274</v>
       </c>
@@ -5125,7 +5113,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
         <v>276</v>
       </c>
@@ -5133,7 +5121,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
         <v>278</v>
       </c>
@@ -5141,7 +5129,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="2:5">
       <c r="B19" t="s">
         <v>279</v>
       </c>
@@ -5149,7 +5137,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="2:5">
       <c r="B20" t="s">
         <v>280</v>
       </c>
@@ -5157,7 +5145,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
         <v>282</v>
       </c>
@@ -5165,7 +5153,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="2:5">
       <c r="B22" t="s">
         <v>284</v>
       </c>
@@ -5174,25 +5162,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col customWidth="1" max="3" min="3" style="1" width="12.625"/>
+    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5214,7 +5200,7 @@
         <v>289</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5225,10 +5211,11 @@
         <v>291</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>